--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1824.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1824.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>2.0939880779208</v>
+        <v>0.8449057340621948</v>
       </c>
       <c r="B1">
-        <v>2.615734543730915</v>
+        <v>1.298365592956543</v>
       </c>
       <c r="C1">
-        <v>2.73337516914672</v>
+        <v>5.194911956787109</v>
       </c>
       <c r="D1">
-        <v>3.195835391006551</v>
+        <v>1.622901678085327</v>
       </c>
       <c r="E1">
-        <v>0.8017684813077006</v>
+        <v>0.9331645965576172</v>
       </c>
     </row>
   </sheetData>
